--- a/REGULAR/CPDO/LOYOLA, JANE.xlsx
+++ b/REGULAR/CPDO/LOYOLA, JANE.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="287">
   <si>
     <t>PERIOD</t>
   </si>
@@ -890,6 +890,12 @@
   </si>
   <si>
     <t>UT(0-6-29)</t>
+  </si>
+  <si>
+    <t>10/23,24/2023</t>
+  </si>
+  <si>
+    <t>1/'7,8/2023</t>
   </si>
 </sst>
 </file>
@@ -3684,9 +3690,9 @@
   <dimension ref="A2:K311"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3990" topLeftCell="A255" activePane="bottomLeft"/>
+      <pane ySplit="3990" topLeftCell="A276" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="F266" sqref="F266"/>
+      <selection pane="bottomLeft" activeCell="J294" sqref="J294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3843,7 +3849,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>-46.513999999999953</v>
+        <v>-41.513999999999953</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3853,7 +3859,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>112.25</v>
+        <v>113.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -10103,13 +10109,15 @@
         <v>45108</v>
       </c>
       <c r="B286" s="20"/>
-      <c r="C286" s="13"/>
+      <c r="C286" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D286" s="39"/>
       <c r="E286" s="9"/>
       <c r="F286" s="20"/>
-      <c r="G286" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G286" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H286" s="39"/>
       <c r="I286" s="9"/>
@@ -10121,13 +10129,15 @@
         <v>45139</v>
       </c>
       <c r="B287" s="20"/>
-      <c r="C287" s="13"/>
+      <c r="C287" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D287" s="39"/>
       <c r="E287" s="9"/>
       <c r="F287" s="20"/>
-      <c r="G287" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G287" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H287" s="39"/>
       <c r="I287" s="9"/>
@@ -10139,13 +10149,15 @@
         <v>45170</v>
       </c>
       <c r="B288" s="20"/>
-      <c r="C288" s="13"/>
+      <c r="C288" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D288" s="39"/>
       <c r="E288" s="9"/>
       <c r="F288" s="20"/>
-      <c r="G288" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G288" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H288" s="39"/>
       <c r="I288" s="9"/>
@@ -10156,25 +10168,35 @@
       <c r="A289" s="40">
         <v>45200</v>
       </c>
-      <c r="B289" s="20"/>
-      <c r="C289" s="13"/>
+      <c r="B289" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C289" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D289" s="39"/>
       <c r="E289" s="9"/>
       <c r="F289" s="20"/>
-      <c r="G289" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H289" s="39"/>
+      <c r="G289" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H289" s="39">
+        <v>2</v>
+      </c>
       <c r="I289" s="9"/>
       <c r="J289" s="11"/>
-      <c r="K289" s="20"/>
+      <c r="K289" s="20" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
         <v>45231</v>
       </c>
-      <c r="B290" s="20"/>
+      <c r="B290" s="20" t="s">
+        <v>88</v>
+      </c>
       <c r="C290" s="13"/>
       <c r="D290" s="39"/>
       <c r="E290" s="9"/>
@@ -10183,10 +10205,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H290" s="39"/>
+      <c r="H290" s="39">
+        <v>2</v>
+      </c>
       <c r="I290" s="9"/>
       <c r="J290" s="11"/>
-      <c r="K290" s="20"/>
+      <c r="K290" s="20" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
@@ -10575,7 +10601,7 @@
   <dimension ref="A5:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
